--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Itgam</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Itgam</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H2">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I2">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J2">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P2">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q2">
-        <v>0.1448363470353333</v>
+        <v>0.1271531576326667</v>
       </c>
       <c r="R2">
-        <v>1.303527123318</v>
+        <v>1.144378418694</v>
       </c>
       <c r="S2">
-        <v>1.019749448747373E-05</v>
+        <v>3.005801575113369E-05</v>
       </c>
       <c r="T2">
-        <v>1.019749448747373E-05</v>
+        <v>3.005801575113368E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H3">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I3">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J3">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N3">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O3">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P3">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q3">
-        <v>150.2809534539929</v>
+        <v>76.99928229729402</v>
       </c>
       <c r="R3">
-        <v>1352.528581085936</v>
+        <v>692.993540675646</v>
       </c>
       <c r="S3">
-        <v>0.01058083295932294</v>
+        <v>0.01820203039553501</v>
       </c>
       <c r="T3">
-        <v>0.01058083295932293</v>
+        <v>0.018202030395535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H4">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I4">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J4">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>154.9253336666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N4">
-        <v>464.776001</v>
+        <v>0.019084</v>
       </c>
       <c r="O4">
-        <v>0.5110412512973043</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P4">
-        <v>0.5110412512973042</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q4">
-        <v>157.2193647240469</v>
+        <v>0.005667366998222223</v>
       </c>
       <c r="R4">
-        <v>1414.974282516422</v>
+        <v>0.051006302984</v>
       </c>
       <c r="S4">
-        <v>0.01106934576792712</v>
+        <v>1.339721401116464E-06</v>
       </c>
       <c r="T4">
-        <v>0.01106934576792712</v>
+        <v>1.339721401116464E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>15.02703733333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H5">
-        <v>45.081112</v>
+        <v>2.672726</v>
       </c>
       <c r="I5">
-        <v>0.3207419491825661</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J5">
-        <v>0.3207419491825661</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.142723</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N5">
-        <v>0.428169</v>
+        <v>184.299025</v>
       </c>
       <c r="O5">
-        <v>0.0004707902754357479</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P5">
-        <v>0.0004707902754357478</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q5">
-        <v>2.144703849325333</v>
+        <v>54.73119954357222</v>
       </c>
       <c r="R5">
-        <v>19.302334643928</v>
+        <v>492.58079589215</v>
       </c>
       <c r="S5">
-        <v>0.0001510021905994589</v>
+        <v>0.01293802913421705</v>
       </c>
       <c r="T5">
-        <v>0.0001510021905994589</v>
+        <v>0.01293802913421705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>45.081112</v>
       </c>
       <c r="I6">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J6">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>148.0881626666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N6">
-        <v>444.264488</v>
+        <v>0.428169</v>
       </c>
       <c r="O6">
-        <v>0.4884879584272602</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P6">
-        <v>0.4884879584272601</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q6">
-        <v>2225.32634901674</v>
+        <v>2.144703849325334</v>
       </c>
       <c r="R6">
-        <v>20027.93714115065</v>
+        <v>19.302334643928</v>
       </c>
       <c r="S6">
-        <v>0.1566785799381717</v>
+        <v>0.0005069912795305698</v>
       </c>
       <c r="T6">
-        <v>0.1566785799381717</v>
+        <v>0.0005069912795305698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>45.081112</v>
       </c>
       <c r="I7">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J7">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,43 +868,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>154.9253336666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N7">
-        <v>464.776001</v>
+        <v>259.283421</v>
       </c>
       <c r="O7">
-        <v>0.5110412512973043</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P7">
-        <v>0.5110412512973042</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q7">
-        <v>2328.068772888123</v>
+        <v>1298.753882427128</v>
       </c>
       <c r="R7">
-        <v>20952.61895599311</v>
+        <v>11688.78494184415</v>
       </c>
       <c r="S7">
-        <v>0.1639123670537949</v>
+        <v>0.3070152985710162</v>
       </c>
       <c r="T7">
-        <v>0.1639123670537949</v>
+        <v>0.3070152985710162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.246574333333334</v>
+        <v>15.02703733333333</v>
       </c>
       <c r="H8">
-        <v>9.739723000000001</v>
+        <v>45.081112</v>
       </c>
       <c r="I8">
-        <v>0.06929593350577223</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J8">
-        <v>0.06929593350577223</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,42 +930,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.142723</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N8">
-        <v>0.428169</v>
+        <v>0.019084</v>
       </c>
       <c r="O8">
-        <v>0.0004707902754357479</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P8">
-        <v>0.0004707902754357478</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q8">
-        <v>0.4633608285763334</v>
+        <v>0.09559199348977779</v>
       </c>
       <c r="R8">
-        <v>4.170247457187</v>
+        <v>0.8603279414080001</v>
       </c>
       <c r="S8">
-        <v>3.262385162175978E-05</v>
+        <v>2.259720245641649E-05</v>
       </c>
       <c r="T8">
-        <v>3.262385162175978E-05</v>
+        <v>2.259720245641649E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.246574333333334</v>
+        <v>15.02703733333333</v>
       </c>
       <c r="H9">
-        <v>9.739723000000001</v>
+        <v>45.081112</v>
       </c>
       <c r="I9">
-        <v>0.06929593350577223</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J9">
-        <v>0.06929593350577223</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.0881626666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N9">
-        <v>444.264488</v>
+        <v>184.299025</v>
       </c>
       <c r="O9">
-        <v>0.4884879584272602</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P9">
-        <v>0.4884879584272601</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q9">
-        <v>480.7792279840916</v>
+        <v>923.1561097239778</v>
       </c>
       <c r="R9">
-        <v>4327.013051856825</v>
+        <v>8308.404987515802</v>
       </c>
       <c r="S9">
-        <v>0.03385022908554585</v>
+        <v>0.2182269115722681</v>
       </c>
       <c r="T9">
-        <v>0.03385022908554585</v>
+        <v>0.2182269115722681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,202 +1036,202 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H10">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I10">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J10">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>154.9253336666667</v>
+        <v>0.142723</v>
       </c>
       <c r="N10">
-        <v>464.776001</v>
+        <v>0.428169</v>
       </c>
       <c r="O10">
-        <v>0.5110412512973043</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P10">
-        <v>0.5110412512973042</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q10">
-        <v>502.9766118653026</v>
+        <v>1.780687743615667</v>
       </c>
       <c r="R10">
-        <v>4526.789506787723</v>
+        <v>16.026189692541</v>
       </c>
       <c r="S10">
-        <v>0.03541308056860464</v>
+        <v>0.0004209407083705775</v>
       </c>
       <c r="T10">
-        <v>0.03541308056860463</v>
+        <v>0.0004209407083705775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08632266666666666</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H11">
-        <v>0.258968</v>
+        <v>37.429589</v>
       </c>
       <c r="I11">
-        <v>0.001842498940485558</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J11">
-        <v>0.001842498940485558</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.142723</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N11">
-        <v>0.428169</v>
+        <v>259.283421</v>
       </c>
       <c r="O11">
-        <v>0.0004707902754357479</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P11">
-        <v>0.0004707902754357478</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q11">
-        <v>0.01232022995466667</v>
+        <v>1078.319098060441</v>
       </c>
       <c r="R11">
-        <v>0.110882069592</v>
+        <v>9704.87188254397</v>
       </c>
       <c r="S11">
-        <v>8.674305836812695E-07</v>
+        <v>0.2549062330633153</v>
       </c>
       <c r="T11">
-        <v>8.674305836812694E-07</v>
+        <v>0.2549062330633153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.47652966666667</v>
+      </c>
+      <c r="H12">
+        <v>37.429589</v>
+      </c>
+      <c r="I12">
+        <v>0.436533649177391</v>
+      </c>
+      <c r="J12">
+        <v>0.436533649177391</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.08632266666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.258968</v>
-      </c>
-      <c r="I12">
-        <v>0.001842498940485558</v>
-      </c>
-      <c r="J12">
-        <v>0.001842498940485558</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>148.0881626666667</v>
+        <v>0.006361333333333333</v>
       </c>
       <c r="N12">
-        <v>444.264488</v>
+        <v>0.019084</v>
       </c>
       <c r="O12">
-        <v>0.4884879584272602</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="P12">
-        <v>0.4884879584272601</v>
+        <v>4.297910712499435E-05</v>
       </c>
       <c r="Q12">
-        <v>12.78336510315378</v>
+        <v>0.07936736405288888</v>
       </c>
       <c r="R12">
-        <v>115.050285928384</v>
+        <v>0.714306276476</v>
       </c>
       <c r="S12">
-        <v>0.0009000385458421801</v>
+        <v>1.876182647165979E-05</v>
       </c>
       <c r="T12">
-        <v>0.00090003854584218</v>
+        <v>1.876182647165979E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08632266666666666</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H13">
-        <v>0.258968</v>
+        <v>37.429589</v>
       </c>
       <c r="I13">
-        <v>0.001842498940485558</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J13">
-        <v>0.001842498940485558</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,60 +1240,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>154.9253336666667</v>
+        <v>61.43300833333333</v>
       </c>
       <c r="N13">
-        <v>464.776001</v>
+        <v>184.299025</v>
       </c>
       <c r="O13">
-        <v>0.5110412512973043</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="P13">
-        <v>0.5110412512973042</v>
+        <v>0.415060130921558</v>
       </c>
       <c r="Q13">
-        <v>13.37356793632978</v>
+        <v>766.4707509834138</v>
       </c>
       <c r="R13">
-        <v>120.362111426968</v>
+        <v>6898.236758850725</v>
       </c>
       <c r="S13">
-        <v>0.0009415929640596969</v>
+        <v>0.1811877135792334</v>
       </c>
       <c r="T13">
-        <v>0.0009415929640596966</v>
+        <v>0.1811877135792334</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>27.476122</v>
+        <v>0.186436</v>
       </c>
       <c r="H14">
-        <v>82.428366</v>
+        <v>0.559308</v>
       </c>
       <c r="I14">
-        <v>0.5864592421494386</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J14">
-        <v>0.5864592421494386</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,54 +1308,54 @@
         <v>0.428169</v>
       </c>
       <c r="O14">
-        <v>0.0004707902754357479</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="P14">
-        <v>0.0004707902754357478</v>
+        <v>0.0009642800942465787</v>
       </c>
       <c r="Q14">
-        <v>3.921474560206</v>
+        <v>0.026608705228</v>
       </c>
       <c r="R14">
-        <v>35.293271041854</v>
+        <v>0.239478347052</v>
       </c>
       <c r="S14">
-        <v>0.0002760993081433742</v>
+        <v>6.290090594297762E-06</v>
       </c>
       <c r="T14">
-        <v>0.0002760993081433741</v>
+        <v>6.290090594297762E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>27.476122</v>
+        <v>0.186436</v>
       </c>
       <c r="H15">
-        <v>82.428366</v>
+        <v>0.559308</v>
       </c>
       <c r="I15">
-        <v>0.5864592421494386</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J15">
-        <v>0.5864592421494386</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,152 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.0881626666667</v>
+        <v>86.42780700000002</v>
       </c>
       <c r="N15">
-        <v>444.264488</v>
+        <v>259.283421</v>
       </c>
       <c r="O15">
-        <v>0.4884879584272602</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="P15">
-        <v>0.4884879584272601</v>
+        <v>0.5839326098770704</v>
       </c>
       <c r="Q15">
-        <v>4068.888424185179</v>
+        <v>16.113254625852</v>
       </c>
       <c r="R15">
-        <v>36619.99581766661</v>
+        <v>145.019291632668</v>
       </c>
       <c r="S15">
-        <v>0.2864782778983774</v>
+        <v>0.003809047847203901</v>
       </c>
       <c r="T15">
-        <v>0.2864782778983774</v>
+        <v>0.003809047847203901</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.186436</v>
+      </c>
+      <c r="H16">
+        <v>0.559308</v>
+      </c>
+      <c r="I16">
+        <v>0.006523094930433466</v>
+      </c>
+      <c r="J16">
+        <v>0.006523094930433466</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006361333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.019084</v>
+      </c>
+      <c r="O16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="P16">
+        <v>4.297910712499435E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.001185981541333333</v>
+      </c>
+      <c r="R16">
+        <v>0.010673833872</v>
+      </c>
+      <c r="S16">
+        <v>2.803567958016075E-07</v>
+      </c>
+      <c r="T16">
+        <v>2.803567958016075E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>27.476122</v>
-      </c>
-      <c r="H16">
-        <v>82.428366</v>
-      </c>
-      <c r="I16">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J16">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>154.9253336666667</v>
-      </c>
-      <c r="N16">
-        <v>464.776001</v>
-      </c>
-      <c r="O16">
-        <v>0.5110412512973043</v>
-      </c>
-      <c r="P16">
-        <v>0.5110412512973042</v>
-      </c>
-      <c r="Q16">
-        <v>4256.747368716041</v>
-      </c>
-      <c r="R16">
-        <v>38310.72631844436</v>
-      </c>
-      <c r="S16">
-        <v>0.2997048649429179</v>
-      </c>
-      <c r="T16">
-        <v>0.2997048649429178</v>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.186436</v>
+      </c>
+      <c r="H17">
+        <v>0.559308</v>
+      </c>
+      <c r="I17">
+        <v>0.006523094930433466</v>
+      </c>
+      <c r="J17">
+        <v>0.006523094930433466</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>61.43300833333333</v>
+      </c>
+      <c r="N17">
+        <v>184.299025</v>
+      </c>
+      <c r="O17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="P17">
+        <v>0.415060130921558</v>
+      </c>
+      <c r="Q17">
+        <v>11.45332434163334</v>
+      </c>
+      <c r="R17">
+        <v>103.0799190747</v>
+      </c>
+      <c r="S17">
+        <v>0.002707476635839465</v>
+      </c>
+      <c r="T17">
+        <v>0.002707476635839465</v>
       </c>
     </row>
   </sheetData>
